--- a/faqs.xlsx
+++ b/faqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chosr\OneDrive - Seethabharatgas\SRI\Documents\whatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75E7AB2-37CB-463B-8DEA-8624E312EC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5774EA-D40C-466C-A9EE-D98CB4BDFFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Question</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>Who is animal husbandry Secretary</t>
   </si>
 </sst>
 </file>
@@ -354,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,6 +385,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/faqs.xlsx
+++ b/faqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chosr\OneDrive - Seethabharatgas\SRI\Documents\whatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5774EA-D40C-466C-A9EE-D98CB4BDFFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952763EA-FE25-4BC7-BF45-0605BFA2190E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,5 +395,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/faqs.xlsx
+++ b/faqs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chosr\OneDrive - Seethabharatgas\SRI\Documents\whatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952763EA-FE25-4BC7-BF45-0605BFA2190E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8AE77-1266-438D-8586-2D278DC52F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Question</t>
   </si>
@@ -40,15 +40,555 @@
   </si>
   <si>
     <t>Who is animal husbandry Secretary</t>
+  </si>
+  <si>
+    <t>What is the role of the Dairy Development Department?</t>
+  </si>
+  <si>
+    <t>The department's primary function is to promote and regulate the dairy industry. This includes increasing milk production, improving milk quality, and ensuring fair prices for farmers.</t>
+  </si>
+  <si>
+    <t>How can I contact the department?</t>
+  </si>
+  <si>
+    <t>We can't provide contact information, as it would be specific to a real-world department.</t>
+  </si>
+  <si>
+    <t>What is the difference between different types of milk (e.g., pasteurized, homogenized)?</t>
+  </si>
+  <si>
+    <t>Where can I find information on milk prices?</t>
+  </si>
+  <si>
+    <t>Milk prices are determined by various factors, including market demand, seasonality, and the fat and protein content of the milk. For specific pricing, you'll have to consult the relevant authorities.</t>
+  </si>
+  <si>
+    <t>How can I get a license to start a dairy farm?</t>
+  </si>
+  <si>
+    <t>You must meet all requirements set by the local government, including land use permits, environmental regulations, and animal welfare standards.</t>
+  </si>
+  <si>
+    <t>What are the best practices for animal health and hygiene?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To maintain animal health, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clean environment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, proper nutrition, and regular veterinary check-ups are essential.</t>
+    </r>
+  </si>
+  <si>
+    <t>Are there any government subsidies or financial assistance programs for dairy farmers?</t>
+  </si>
+  <si>
+    <t>We can't confirm the availability of government subsidies as it would be specific to a real-world department.</t>
+  </si>
+  <si>
+    <t>How can I improve the quality of the milk I produce?</t>
+  </si>
+  <si>
+    <t>Ensure the health of your cows, maintain a clean milking environment, and store milk at the proper temperature.</t>
+  </si>
+  <si>
+    <t>What should I do if my cows are sick?</t>
+  </si>
+  <si>
+    <t>You should contact a veterinarian immediately. The department may have a list of approved veterinarians.</t>
+  </si>
+  <si>
+    <t>How is milk quality checked?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Milk quality is tested for various parameters, including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fat content, protein content, and bacterial count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This ensures the milk is safe for consumption.</t>
+    </r>
+  </si>
+  <si>
+    <t>What are the health benefits of consuming milk?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Milk is a good source of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calcium, protein, and vitamins D and B12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. These nutrients are crucial for strong bones and overall health.</t>
+    </r>
+  </si>
+  <si>
+    <t>How should I store milk at home?</t>
+  </si>
+  <si>
+    <t>Always store milk in the refrigerator at a temperature of around 4°C (39°F). Keep the milk carton sealed to prevent contamination.</t>
+  </si>
+  <si>
+    <t>Where can I find a list of registered dairies or milk processing plants?</t>
+  </si>
+  <si>
+    <t>Such a list would be specific to the real-world department.</t>
+  </si>
+  <si>
+    <t>What should I do if I have a complaint about milk quality?</t>
+  </si>
+  <si>
+    <t>You should report your complaint to the department with details such as the product brand, date of purchase, and any other relevant information.</t>
+  </si>
+  <si>
+    <r>
+      <t>What are the best dairy cow breeds for milk production?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Common breeds known for high milk production include Holstein, Jersey, Brown Swiss, and Red and White. The best breed for your farm depends on your location, market demand, and specific goals. For instance, Holstein cows are prized for high milk volume, while Jersey cows produce milk with higher butterfat content.</t>
+  </si>
+  <si>
+    <r>
+      <t>How much space does a dairy cow need?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> A general rule of thumb is to provide enough room for the largest animal to lie down, rest comfortably, and stand up freely. This often translates to around 50 square feet of stall space per animal. Freshly calved cows may need more space, up to 100 square feet.</t>
+  </si>
+  <si>
+    <r>
+      <t>How often should I milk my cows?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>Most dairy cows are milked two to three times per day. Consistency is key, as cows thrive on routine.</t>
+  </si>
+  <si>
+    <r>
+      <t>What is the ideal diet for a milk-producing cow?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>A cow's diet should be a balanced total mixed ration (TMR) of high-quality forages (like hay, silage, and pasture), grains, and protein supplements (like soybean meal), along with essential vitamins and minerals. The specific proportions should be tailored to the cow's stage of lactation and production goals.</t>
+  </si>
+  <si>
+    <r>
+      <t>How much feed and water does a cow consume daily?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>A lactating cow consumes about 100 pounds of feed (dry matter basis) and can drink anywhere from 30 to 50 gallons of water per day, depending on her milk production and the weather.</t>
+  </si>
+  <si>
+    <r>
+      <t>How can I increase milk production through feeding?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> To boost milk production, focus on:High-quality forage: Ensure your forage is of high quality and free from contaminants.Consistent feeding: Provide consistent access to fresh, high-quality feed for 22-23 hours a day. Nutrient balance: Work with a nutritionist to balance the ration for key nutrients, including protein, carbohydrates, fats, and amino acids like lysine and methionine.</t>
+  </si>
+  <si>
+    <t>What are some common diseases in dairy cows?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Common diseases include:Milk Fever (Hypocalcemia): A metabolic disorder caused by a sudden drop in blood calcium levels, usually around calving.Ketosis: A metabolic disorder that occurs when a cow's energy demands for milk production exceed her feed intake. Foot and Mouth Disease (FMD): A highly contagious viral disease that affects cloven-hoofed animals.</t>
+  </si>
+  <si>
+    <t>What is a "downer cow" and what should I do?</t>
+  </si>
+  <si>
+    <t>downer cow, a veterinarian's immediate attention is necessary to diagnose and treat the underlying cause.</t>
+  </si>
+  <si>
+    <r>
+      <t>Do you use antibiotics on sick cows?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Yes, large-animal veterinarians prescribe antibiotics for cows when necessary to treat illnesses. A sick cow receiving medication is typically separated from the rest of the herd, and her milk is withheld from the market until the medicine's withdrawal time has been met. This is a legal requirement to ensure the milk supply remains free of antibiotics.</t>
+  </si>
+  <si>
+    <r>
+      <t>Is dairy farming a profitable business?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>A: Dairy farming can be a profitable business, but success depends on several factors, including herd size, efficient management, and market conditions. Larger farms often see more significant profits due to economies of scale.</t>
+  </si>
+  <si>
+    <r>
+      <t>How much investment is required to start a dairy farm?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>A: The investment can vary widely based on the scale of the operation. A small-scale farm with a few animals can require less capital, while a large-scale commercial dairy farm can require substantial investment in land, sheds, equipment, and a larger herd.</t>
+  </si>
+  <si>
+    <r>
+      <t>What are the essential elements of a dairy farm business plan?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>A: A comprehensive business plan should include:Introduction: Your business model and mission.Farm Location: Details about your location and its suitability.Market Analysis: Research on local demand, potential customers, and competitors.Cattle and Equipment: Information on your herd size, breed selection, and necessary machinery.Daily Operations: A list of daily activities, from feeding and milking to waste management and medical care.Financials: Projections for costs, revenue, and profitability.</t>
+  </si>
+  <si>
+    <t>What is the initial investment required to start a small dairy business?</t>
+  </si>
+  <si>
+    <t>The cost can vary significantly based on your scale, location, and the type of facilities you build. A small-scale dairy farm with 20 animals might require an initial investment of approximately ₹10-20 lakhs. This amount covers the cost of animals, land/sheds, fodder, water, transportation, and veterinary care. You will also have ongoing costs for labor, insurance, and equipment maintenance.</t>
+  </si>
+  <si>
+    <t>What are the key steps to start a dairy business?</t>
+  </si>
+  <si>
+    <t>Market Research: Understand the local demand for milk and other dairy products in your area. This will help you decide on the scale of your operation and what products to sell.Business Plan: Develop a Cattle Selection: Choose high-yielding, healthy breeds that are well-suited to your local climate. Popular Indian breeds include Gir, Sahiwal, and Murrah buffaloes.comprehensive business plan that includes your goals, budget, financial projections, and a detailed operational plan for daily activities.Location and Infrastructure: Select a suitable location with access to water, electricity, and a reliable market. Construct a well-ventilated and hygienic shed for the animals, along with a dedicated milking area and storage facilities.Legal and Financial Requirements: Register your business, obtain the necessary licenses and permits, and secure funding through bank loans or government schemes.Management: Implement good management practices for feeding, breeding, health care, and waste disposal.</t>
+  </si>
+  <si>
+    <t>What licenses and registrations are required to start a dairy business in India?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To operate legally, you must obtain several licenses and registrations:FSSAI (Food Safety and Standards Authority of India) Registration: This is a mandatory requirement for all food businesses, including dairy operations.Local Municipal License: You will need to obtain a license from your local municipal corporation or panchayat.Veterinary Registration: Register with the local veterinary and animal husbandry departments.Business Registration: Register your business as a Sole Proprietorship, Partnership, or a Private Limited Company. You may also register as a Micro, Small, and Medium Enterprise (MSME) to access government </t>
+  </si>
+  <si>
+    <t>Is dairy farming profitable?</t>
+  </si>
+  <si>
+    <t>Yes, dairy farming can be a profitable business, but it requires diligent management and a strong understanding of animal husbandry and business principles. Profitability depends on factors such as efficient daily management, the health of your herd, milk yield, and effective marketing and sales channels.</t>
+  </si>
+  <si>
+    <t>How do I get funding for my small dairy farm?</t>
+  </si>
+  <si>
+    <r>
+      <t>Bank Loans:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Many banks offer loans for agricultural and dairy farming projects. A well-prepared business plan is essential to secure a loan.Government Schemes: The government of India and various state governments offer schemes and subsidies to encourage dairy entrepreneurship. These may include capital subsidies, interest subsidies on loans, and assistance for setting up infrastructure. While the Dairy Entrepreneurship Development Scheme (DEDS) was discontinued, other schemes like the National Programme for Dairy Development and the Rashtriya Gokul Mission are available to support dairy farmers. It's advisable to check with the Department of Animal Husbandry and Dairying for the most current schemes.Government Schemes: The government of India and various state governments offer schemes and subsidies to encourage dairy entrepreneurship. These may include capital subsidies, interest subsidies on loans, and assistance for setting up infrastructure. While the Dairy Entrepreneurship Development Scheme (DEDS) was discontinued, other schemes like the National Programme for Dairy Development and the Rashtriya Gokul Mission are available to support dairy farmers. It's advisable to check with the Department of Animal Husbandry and Dairying for the most current schemes.</t>
+    </r>
+  </si>
+  <si>
+    <t>What are the key considerations for selecting dairy cattle?</t>
+  </si>
+  <si>
+    <t>When selecting cattle, look for healthy animals with clear and bright eyes, a moist nose, normal breathing, and a glossy coat. Check the udder for any abnormalities and observe the animal's mobility and overall attitude. It's also important to review the animal's history, including previous milk yield and calving records.</t>
+  </si>
+  <si>
+    <t>How much space is required for each cow?</t>
+  </si>
+  <si>
+    <t>A general rule of thumb is to provide enough space for the animal to move around comfortably. In a freestall system, this is about 50 square feet per animal. You should also have a separate space for calving for health and safety reasons.</t>
+  </si>
+  <si>
+    <t>What kind of diet do dairy cows need?</t>
+  </si>
+  <si>
+    <t>A cow's diet is crucial for high milk yield and overall health. It should be a balanced combination of:Green Fodder: Grass, maize, and alfalfa.Dry Fodder: Hay and straw.Mineral Mixtures: To ensure a balanced diet with essential vitamins and minerals.Water: Dairy cows drink a significant amount of water. A cow producing milk needs about 2.5 liters of water for every liter of milk it produces, in addition to its regular daily requirement of 75-80 liters.</t>
+  </si>
+  <si>
+    <t>How many times should a cow be milked in a day?</t>
+  </si>
+  <si>
+    <t>Most dairy cows are milked two to three times per day. It is crucial to follow hygienic milking practices, whether using a manual or automated milking machine.</t>
+  </si>
+  <si>
+    <t>How can I ensure the quality of my milk?</t>
+  </si>
+  <si>
+    <t>1.Maintain a clean and hygienic environment in the shed and milking area.2.Thoroughly clean the udders before milking.3.Ensure quick and complete milking.4.Regularly test milk for fat content, solids-not-fat (SNF), and bacterial contamination. 5.Properly store the milk in cold storage facilities to preserve its quality</t>
+  </si>
+  <si>
+    <t>What are the first steps to starting a dairy farm in India?</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a Business Plan:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This is crucial. Your plan should cover everything from the number of animals you'll start with to financial projections, marketing strategies, and risk assessment. Visiting existing, successful dairy farms and talking to owners is highly recommended.Secure Land and Infrastructure: You need suitable land that is well-drained and not prone to waterlogging. The land should be large enough to accommodate sheds for the animals and open grazing areas if you choose an "open field" model. The sheds should be well-ventilated, have a hard, non-slippery floor, and proper drainage.Financial Planning: The initial investment can range from ₹10-20 lakh for a farm with about 20 animals. This cost covers animals, land, shed construction, feed, and other utilities. You can explore business loans from banks and financial institutions, as a well-prepared project report can help in securing funding.Legal Formalities and Registration: You'll need to obtain various licenses and registrations to operate legally. This includes a local municipal license, FSSAI (Food Safety and Standards Authority of India) registration, and potentially a Consent NOC from the Pollution Control Board, depending on the scale of your operation.</t>
+    </r>
+  </si>
+  <si>
+    <t>How do I choose the right breeds of cows and buffaloes for my farm?</t>
+  </si>
+  <si>
+    <t>The choice of breed depends on factors like your local climate, market demand, and desired milk quality. A mix of both cows and buffaloes can be a good strategy.Cow Breeds: Indian breeds like Sahiwal, Gir, and Red Sindhi are known for their adaptability to the local climate and disease resistance. Cross-breeds with exotic inheritance (e.g., Holstein Friesian and Jersey crosses) can offer higher milk yields but may require more specialized care and a different diet.Buffalo Breeds: Buffalo milk has a higher fat content, which is often preferred for making products like ghee and khoa. Common buffalo breeds in India include Murrah, Surti, and Jaffarabadi.Selection Criteria: When purchasing animals, look for healthy, high-yielding animals in their second or third lactation. It's best to buy from a reliable breeder or a livestock market, and it's advisable to get a veterinarian's help to assess their health and milk-producing ability.</t>
+  </si>
+  <si>
+    <t>What is the ideal feed and nutrition for cattle to ensure high milk production?</t>
+  </si>
+  <si>
+    <t>A nutritious and balanced diet is essential for the health and productivity of your animals.Fodder: A combination of green fodder (like maize, sorghum, and legumes) and dry fodder (like straw and hay) is a must. You can also consider having a grazing area.Concentrate Feed: This is a mix of ingredients like grains, oil cakes, and mineral mixtures. Many commercial cattle feed manufacturers in India offer scientifically formulated feed pellets and mash to cater to different needs (e.g., for high-yielding cows, dry cows, or calves).Water: Ensure a continuous supply of clean and fresh water. An animal's water intake is directly related to its milk production.</t>
+  </si>
+  <si>
+    <t>What are the common diseases in cattle and how can I prevent them?</t>
+  </si>
+  <si>
+    <t>Disease prevention is key to a profitable dairy business.Common Diseases: Some of the common and serious diseases in India include Foot-and-Mouth Disease (FMD), Black Quarter, Hemorrhagic Septicemia, and Mastitis.Prevention:Vaccination: Regular and timely vaccination against major diseases is the most effective preventive measure.Hygiene and Sanitation: Maintain clean and dry sheds, drains, and a sanitary environment.Isolation: Isolate any sick animal immediately from the rest of the herd to prevent the spread of infection.Veterinary Care: Have a good relationship with a local veterinarian and schedule regular health check-ups.</t>
+  </si>
+  <si>
+    <t>What are the main challenges in dairy farming in India?</t>
+  </si>
+  <si>
+    <r>
+      <t>High Costs:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The initial investment in infrastructure and animals, along with ongoing costs for feed and labor, can be a major challenge.Disease Management: The risk of disease outbreaks and the associated costs of treatment and production loss can be significant.Marketing and Sales: Securing a consistent market for your milk can be difficult, especially for new entrants. You need to develop a solid strategy for selling your milk to local dairies, cooperatives, or directly to consumers.Labor: Finding and retaining skilled and hardworking labor with experience in animal husbandry can be a challenge.</t>
+    </r>
+  </si>
+  <si>
+    <t>What are the common by-products of milk in Maharashtra?</t>
+  </si>
+  <si>
+    <t>Maharashtra's dairy industry, which is a significant part of the state's agricultural economy, produces a wide variety of by-products from cow and buffalo milk. Some of the most popular and commercially available ones include:Fermented products: Curd (Dahi), Buttermilk (Chaas/Taak), Lassi, and Shrikhand.Solid products: Ghee (clarified butter), Paneer (cottage cheese), Khoa (condensed milk solids), and Cheese.Other products: Ice cream, flavored milk, and milk powder.</t>
+  </si>
+  <si>
+    <t>Are there any traditional or regional milk by-products specific to Maharashtra?</t>
+  </si>
+  <si>
+    <t>Yes, Maharashtra is known for several traditional dairy by-products.Shrikhand and Amrakhand: These are popular desserts made from strained, sweetened curd, often flavored with saffron, cardamom, or mango (Amrakhand). They are integral to Maharashtrian cuisine and are widely produced by cooperative and private dairies across the state.Basundi: A sweetened, dense milk dessert made by boiling milk on low heat until it is reduced by half. It is a traditional dessert in Maharashtra, Gujarat, and Karnataka.Chaas (Buttermilk): This is a popular and refreshing drink, especially in the hot climate of Maharashtra. It is a by-product of churning curd to make butter and is often spiced with cumin, ginger, and green chilies.</t>
+  </si>
+  <si>
+    <t>What are the main differences between by-products from cow milk and buffalo milk?</t>
+  </si>
+  <si>
+    <t>Both cow and buffalo milk are used to produce a range of dairy products, but their composition leads to some key differences:Fat Content: Buffalo milk has a higher fat content than cow milk. This makes it ideal for producing high-fat products like Ghee and Paneer, which have a richer taste and creamier texture when made from buffalo milk.Fat Content: Buffalo milk has a higher fat content than cow milk. This makes it ideal for producing high-fat products like Ghee and Paneer, which have a richer taste and creamier texture when made from buffalo milk.Fat Content: Buffalo milk has a higher fat content than cow milk. This makes it ideal for producing high-fat products like Ghee and Paneer, which have a richer taste and creamier texture when made from buffalo milk.</t>
+  </si>
+  <si>
+    <t>How are milk by-products used in various industries?</t>
+  </si>
+  <si>
+    <t>Beyond direct consumption, milk by-products have diverse applications:Food Industry: The primary use is in a wide range of food products, including sweets (Khoa-based), frozen desserts (Ice cream), and savory dishes (Paneer).Nutritional Supplements: Whey, a by-product of cheese and paneer production, is a valuable source of protein. It is processed into whey protein concentrate and isolate, widely used in sports nutrition and dietary supplements.Animal Feed: Skimmed milk and buttermilk, which are by-products of butter and cream production, can be used as nutritious animal feed.Biogas and Fertilizer: In some cases, dairy by-products that are not suitable for human consumption can be used to produce biogas for energy or converted into organic fertilizer for farming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is milk? </t>
+  </si>
+  <si>
+    <t>Milk is the normal mammary secretion derived from complete milking of healthy milch animals (cow, buffalo etc.), without either addition thereto or extraction therefrom.</t>
+  </si>
+  <si>
+    <r>
+      <t>Pasteurization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> involves heating milk to a specific temperature for a set time to kill harmful bacteria. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Homogenization is a process that breaks down fat globules, preventing cream from separating and rising to the top.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,7 +603,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,12 +611,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,6 +963,562 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3"/>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/faqs.xlsx
+++ b/faqs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chosr\OneDrive - Seethabharatgas\SRI\Documents\whatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8AE77-1266-438D-8586-2D278DC52F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D471572A-7632-4482-BFDF-004E3858AF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="172">
   <si>
     <t>Question</t>
   </si>
@@ -564,6 +564,231 @@
       </rPr>
       <t>Homogenization is a process that breaks down fat globules, preventing cream from separating and rising to the top.</t>
     </r>
+  </si>
+  <si>
+    <t>Which animals should not be vaccinated?</t>
+  </si>
+  <si>
+    <t>Sick animals, newborn calves, and young animals up to 3–4 months old should not be vaccinated.</t>
+  </si>
+  <si>
+    <t>Can pregnant animals be vaccinated?</t>
+  </si>
+  <si>
+    <t>Yes, pregnant animals can be vaccinated, except during the advanced stage of pregnancy, when it should be avoided.</t>
+  </si>
+  <si>
+    <t>Can all types of vaccines be given to pregnant animals?</t>
+  </si>
+  <si>
+    <t>Generally, yes. If any vaccine is unsuitable, veterinarians will not administer it. Always consult a veterinarian before vaccination.</t>
+  </si>
+  <si>
+    <t>Can multiple vaccines be given at the same time?</t>
+  </si>
+  <si>
+    <t>Yes, animals can be vaccinated against more than one disease at the same time.</t>
+  </si>
+  <si>
+    <t>Do symptoms like swelling, lumps on the neck, reduced milk, bloating, or lameness occur after vaccination?</t>
+  </si>
+  <si>
+    <t>Yes, often in weak animals. Vaccination can cause temporary stress leading to reduced milk, less appetite, or bloating. Swelling or lumps should be treated with ice packs. These symptoms usually reduce after basic treatment.</t>
+  </si>
+  <si>
+    <t>What is the right time for vaccination?</t>
+  </si>
+  <si>
+    <t>When does immunity develop after vaccination?</t>
+  </si>
+  <si>
+    <t>Immunity develops within 7 to 14 days after vaccination.</t>
+  </si>
+  <si>
+    <t>Is brucellosis vaccination necessary? Who should get it, and what are the benefits?</t>
+  </si>
+  <si>
+    <t>Yes, female animals aged 4–8 months should be vaccinated once. This prevents abortions during mid to late pregnancy.</t>
+  </si>
+  <si>
+    <t>Which animal bites require rabies vaccination?</t>
+  </si>
+  <si>
+    <t>Bites from dogs, cats, rabid animals, monkeys, wolves, mongooses, or any wild animals require rabies vaccination.</t>
+  </si>
+  <si>
+    <t>What should be done if bitten by a rabid dog or wild animal?</t>
+  </si>
+  <si>
+    <t>Wash the wound under running water for 10–15 minutes, clean with soap, apply iodine, and immediately visit the nearest hospital.</t>
+  </si>
+  <si>
+    <t>Does taking only one or two doses of rabies vaccine help after a dog bite?</t>
+  </si>
+  <si>
+    <t>No, the full rabies vaccine course is absolutely necessary.</t>
+  </si>
+  <si>
+    <t>Should deworming be done before vaccination?</t>
+  </si>
+  <si>
+    <t>Yes, deworming one week before vaccination increases its effectiveness.</t>
+  </si>
+  <si>
+    <t>Can rabies still occur if the biting animal was vaccinated?</t>
+  </si>
+  <si>
+    <t>Yes, but the chances are very low.</t>
+  </si>
+  <si>
+    <t>Can rabies spread from drinking milk of an infected animal?</t>
+  </si>
+  <si>
+    <t>Yes, it can. If the milk is boiled thoroughly, the risk is reduced. However, milk from rabid animals should not be consumed.</t>
+  </si>
+  <si>
+    <t>Should people handling rabid animals be vaccinated?</t>
+  </si>
+  <si>
+    <t>Yes, anyone handling rabid animals must get rabies vaccination.</t>
+  </si>
+  <si>
+    <t>What should be done if a snake bites an animal?</t>
+  </si>
+  <si>
+    <t>Tie a tight band 3–4 inches above the bite to stop blood circulation, make a small cut with a sterile blade to let out contaminated blood, wash with clean water, and immediately call 1962 helpline or contact the nearest veterinarian.</t>
+  </si>
+  <si>
+    <t>What should be done if an animal suffers from bloating?</t>
+  </si>
+  <si>
+    <t>Stop feeding, give 500 ml edible oil + 30 ml turpentine oil + black salt slowly, and contact the nearest vet via helpline 1962.</t>
+  </si>
+  <si>
+    <t>What if bloating occurs after eating tender green fodder?</t>
+  </si>
+  <si>
+    <t>Stop green fodder, provide dry fodder, give 500 ml edible oil + 35 ml turpentine oil + black salt slowly, and contact the vet immediately through helpline 1962.</t>
+  </si>
+  <si>
+    <t>Can stale food or flour be fed to animals?</t>
+  </si>
+  <si>
+    <t>No, stale food and flour can cause indigestion, bloating, and poisoning.</t>
+  </si>
+  <si>
+    <t>What should be done if an animal is poisoned from food?</t>
+  </si>
+  <si>
+    <t>Stop feeding, give baking soda or vinegar mixed with water immediately.</t>
+  </si>
+  <si>
+    <t>Should vaccination be done if vaccines were not stored in cold chain?</t>
+  </si>
+  <si>
+    <t>No, vaccines must always be kept in cold storage (cold chain).</t>
+  </si>
+  <si>
+    <t>How to maintain good animal health and productivity?</t>
+  </si>
+  <si>
+    <t>Regular deworming, vaccination, clean housing, clean drinking water, and proper hygiene to prevent ticks and disease spread.</t>
+  </si>
+  <si>
+    <t>What to do if animals are poisoned?</t>
+  </si>
+  <si>
+    <t>1. If due to tick medicine (cypermethrin), wash the animal thoroughly and give 50–100 g charcoal powder. 2. If due to sorghum stems or onion leaves, give lime water, charcoal powder, or vinegar. 3. Immediately call helpline 1962 or a nearby vet.</t>
+  </si>
+  <si>
+    <t>How much colostrum should a newborn calf receive and when?</t>
+  </si>
+  <si>
+    <t>Within the first few hours of birth, feed colostrum equal to 10% of the calf’s body weight.</t>
+  </si>
+  <si>
+    <t>What should be done if an animal develops mastitis?</t>
+  </si>
+  <si>
+    <t>Home remedy: Mix 250 g aloe vera, 50 g turmeric, 15 g lime, and 150–200 ml water into a paste. Apply on the udder 10 times a day for 5 days. Also, immediately contact helpline 1962 or a vet.</t>
+  </si>
+  <si>
+    <t>How much feed should be given to pregnant animals?</t>
+  </si>
+  <si>
+    <t>Along with regular fodder, provide an extra 3–4 kg fodder and 1–2 kg oil cakes.</t>
+  </si>
+  <si>
+    <t>What extra feed should be given to lactating animals?</t>
+  </si>
+  <si>
+    <t>Give 1–2 kg concentrate (oil cake).</t>
+  </si>
+  <si>
+    <t>How to make low-quality fodder nutritious?</t>
+  </si>
+  <si>
+    <t>Treat it with urea. Cut into 1–2 inch pieces, spread on plastic, spray with a solution of 4 kg urea in 40 liters water per 100 kg fodder, keep airtight for 2–3 weeks, then feed. This increases digestibility and nutrition.</t>
+  </si>
+  <si>
+    <t>When can calves be given feed apart from milk?</t>
+  </si>
+  <si>
+    <t>From 6–8 weeks onwards, small amounts of fodder can be introduced.</t>
+  </si>
+  <si>
+    <t>When should deworming medicine be given to calves?</t>
+  </si>
+  <si>
+    <t>On the 6th–10th day after birth, then monthly up to 6 months, and afterwards every 3–4 months (summer, rainy season, winter) — three times a year.</t>
+  </si>
+  <si>
+    <t>When should castration be done?</t>
+  </si>
+  <si>
+    <t>Within the first year of life.</t>
+  </si>
+  <si>
+    <t>What is Artificial Insemination (AI)?</t>
+  </si>
+  <si>
+    <t>It is fertilization carried out scientifically without natural mating.</t>
+  </si>
+  <si>
+    <t>At what age do female animals become pregnant?</t>
+  </si>
+  <si>
+    <t>Crossbred cows: 8 months–1 year; Local cows: 2.5–3 years.</t>
+  </si>
+  <si>
+    <t>How to identify heat signs in female animals?</t>
+  </si>
+  <si>
+    <t>Frequent urination, swollen and reddish vulva, transparent discharge, restlessness, reduced appetite, and mounting other animals.</t>
+  </si>
+  <si>
+    <t>When should AI be performed?</t>
+  </si>
+  <si>
+    <t>In the mid-heat stage (10–12 hours after onset).</t>
+  </si>
+  <si>
+    <t>What is the success rate of AI?</t>
+  </si>
+  <si>
+    <t>40–60% or higher with good quality semen from approved bulls, properly timed.</t>
+  </si>
+  <si>
+    <t>Should animals be allowed to mate naturally after AI?</t>
+  </si>
+  <si>
+    <t>No, if AI is done properly, natural mating should not be allowed.</t>
+  </si>
+  <si>
+    <t>Which semen varieties are available for AI in Maharashtra?</t>
+  </si>
+  <si>
+    <t>Cows: Holstein Friesian (HF-100%), Jersey (JR-100%), crossbred HF &amp; JR, Deoni, Lal Kandhari, Gir, Sahiwal, Khillari. Buffaloes: Murrah, Surti, Jaffrabadi.</t>
   </si>
 </sst>
 </file>
@@ -630,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -647,6 +872,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,39 +1153,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="217.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="217.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1517,6 +1744,307 @@
       </c>
       <c r="B96" s="1" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
